--- a/biology/Zoologie/Barilius/Barilius.xlsx
+++ b/biology/Zoologie/Barilius/Barilius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barilius est un genre qui regroupe de nombreuses espèces de poissons de la famille des cyprinidés. Ce genre est originaire d'Asie.
 </t>
@@ -511,10 +523,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (26 août 2015)[1]:
-Barilius ardens Knight, A. Rai, D'Souza &amp; Vijaykrishnan, 2015[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (26 août 2015):
+Barilius ardens Knight, A. Rai, D'Souza &amp; Vijaykrishnan, 2015
 Barilius bakeri F. Day, 1865
 Barilius barila (F. Hamilton, 1822)
 Barilius barna (F. Hamilton, 1822)
@@ -522,7 +536,7 @@
 Barilius bernatziki Koumans, 1937
 Barilius bonarensis Chaudhuri, 1912
 Barilius borneensis T. R. Roberts, 1989
-Barilius canarensis (Jerdon, 1849)[2]
+Barilius canarensis (Jerdon, 1849)
 Barilius caudiocellatus X. L. Chu, 1984
 Barilius chatricensis Selim &amp; Vishwanath, 2002
 Barilius dimorphicus Tilak &amp; Husain, 1990
@@ -532,7 +546,7 @@
 Barilius huahinensis Fowler, 1934 (Peut-être synonyme junior de Opsarius koratensis)
 Barilius infrafasciatus Fowler, 1934
 Barilius lairokensis Arunkumar &amp; Tombi Singh, 2000
-Barilius malabaricus Jerdon, 1849[2]
+Barilius malabaricus Jerdon, 1849
 Barilius mesopotamicus L. S. Berg, 1932
 Barilius modestus F. Day, 1872
 Barilius naseeri Mirza, Rafiq &amp; F. A. Awan, 1986
@@ -540,12 +554,12 @@
 Barilius ngawa Vishwanath &amp; Manojkumar, 2002
 Barilius ornatus Sauvage, 1883
 Barilius pakistanicus Mirza &amp; Sadiq, 1978
-Barilius pectoralis Husain, 2012[3]
+Barilius pectoralis Husain, 2012
 Barilius ponticulus (H. M. Smith, 1945)
-Barilius profundus Dishma &amp; Vishwanath, 2012[4]
+Barilius profundus Dishma &amp; Vishwanath, 2012
 Barilius radiolatus Günther, 1868
 Barilius shacra (F. Hamilton, 1822)
-Barilius signicaudus Tejavej, 2012[5]
+Barilius signicaudus Tejavej, 2012
 Barilius tileo (F. Hamilton, 1822)
 Barilius vagra (F. Hamilton, 1822)</t>
         </is>
